--- a/tasmi 5 juz putri.xlsx
+++ b/tasmi 5 juz putri.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="6975"/>
+    <workbookView windowWidth="20490" windowHeight="6975" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="jadwal" sheetId="1" r:id="rId1"/>
+    <sheet name="juz &amp; video" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>JADWAL TASMI' AL-QURAN 5 JUZ</t>
   </si>
@@ -129,6 +130,10 @@
     <t>Jumat, 23 April 2021</t>
   </si>
   <si>
+    <t>Jahrisa
+3, 4</t>
+  </si>
+  <si>
     <t>Khodijah
 2, 3</t>
   </si>
@@ -137,12 +142,106 @@
 2, 3</t>
   </si>
   <si>
+    <t>Laili
+3, 4</t>
+  </si>
+  <si>
     <t>Azizah
 2, 3</t>
   </si>
   <si>
+    <t>Sabila
+1, 2</t>
+  </si>
+  <si>
+    <t>Sahla
+3, 4</t>
+  </si>
+  <si>
     <t>Nadine
 2</t>
+  </si>
+  <si>
+    <t>Mutia
+4</t>
+  </si>
+  <si>
+    <t>JUZ</t>
+  </si>
+  <si>
+    <t>VIDEO</t>
+  </si>
+  <si>
+    <t>NAMA</t>
+  </si>
+  <si>
+    <t>HARI</t>
+  </si>
+  <si>
+    <t>Nadine</t>
+  </si>
+  <si>
+    <t>30, 1, 2</t>
+  </si>
+  <si>
+    <t>Juz 1</t>
+  </si>
+  <si>
+    <t>Kamis</t>
+  </si>
+  <si>
+    <t>Inas</t>
+  </si>
+  <si>
+    <t>30, 1</t>
+  </si>
+  <si>
+    <t>Juz 30</t>
+  </si>
+  <si>
+    <t>Khadijah</t>
+  </si>
+  <si>
+    <t>30, 1, 2, 3</t>
+  </si>
+  <si>
+    <t>Juz 2</t>
+  </si>
+  <si>
+    <t>Jumat</t>
+  </si>
+  <si>
+    <t>Azizah</t>
+  </si>
+  <si>
+    <t>Salwa</t>
+  </si>
+  <si>
+    <t>Rabu</t>
+  </si>
+  <si>
+    <t>Sabila</t>
+  </si>
+  <si>
+    <t>Muthia</t>
+  </si>
+  <si>
+    <t>30, 1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>Juz 4</t>
+  </si>
+  <si>
+    <t>Laili</t>
+  </si>
+  <si>
+    <t>Juz 3</t>
+  </si>
+  <si>
+    <t>Jahrisa</t>
+  </si>
+  <si>
+    <t>Sahla</t>
   </si>
 </sst>
 </file>
@@ -155,8 +254,24 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
-    <font>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -508,12 +623,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -619,165 +749,192 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1101,197 +1258,218 @@
   <sheetPr/>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.1428571428571" customWidth="true"/>
+    <col min="1" max="1" width="12.5714285714286" customWidth="true"/>
     <col min="2" max="2" width="14" customWidth="true"/>
     <col min="3" max="3" width="13.8571428571429" customWidth="true"/>
     <col min="4" max="4" width="14.1428571428571" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" ht="30" spans="1:4">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:4">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" ht="30" spans="1:4">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" ht="30" spans="1:3">
-      <c r="A11" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" ht="30" spans="1:4">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" ht="30" spans="1:3">
-      <c r="A12" t="s">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" ht="30" spans="1:4">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" ht="30" spans="1:3">
-      <c r="A13" t="s">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" ht="30" spans="1:4">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" ht="30" spans="1:4">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" ht="30" spans="1:4">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" ht="30" spans="1:4">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" ht="30" spans="1:3">
-      <c r="A18" t="s">
+      <c r="D17" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" ht="30" spans="1:4">
+      <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" ht="30" spans="1:3">
-      <c r="A19" t="s">
+      <c r="B18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" ht="30" spans="1:4">
+      <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
+      <c r="B19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1308,4 +1486,227 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9.28571428571429" customWidth="true"/>
+    <col min="2" max="2" width="11.7142857142857" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/tasmi 5 juz putri.xlsx
+++ b/tasmi 5 juz putri.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zen\rekap-tahfidz\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D01C7BD-539D-4402-A6E5-DFCCB7D07275}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="6975" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jadwal" sheetId="1" r:id="rId1"/>
     <sheet name="juz &amp; video" sheetId="2" r:id="rId2"/>
+    <sheet name="penilaian" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
   <si>
     <t>JADWAL TASMI' AL-QURAN 5 JUZ</t>
   </si>
@@ -242,24 +249,79 @@
   </si>
   <si>
     <t>Sahla</t>
+  </si>
+  <si>
+    <t>FORMAT PENILAIAN UJIAN TAHFIDZ</t>
+  </si>
+  <si>
+    <t>MADRASAH AL-QUR'AN BAITUL IZZAH SAMARINDA</t>
+  </si>
+  <si>
+    <t>TAHUN AJARAN 2020 - 2021</t>
+  </si>
+  <si>
+    <t>NAMA SANTRI</t>
+  </si>
+  <si>
+    <t>MATERI YANG DIUJIKAN</t>
+  </si>
+  <si>
+    <t>KESALAHAN BACAAN</t>
+  </si>
+  <si>
+    <t>KELANCARAN</t>
+  </si>
+  <si>
+    <t>MAKHROJ</t>
+  </si>
+  <si>
+    <t>SIFAT</t>
+  </si>
+  <si>
+    <t>HUKUM</t>
+  </si>
+  <si>
+    <t>KETERANGAN</t>
+  </si>
+  <si>
+    <t>Catatan :</t>
+  </si>
+  <si>
+    <t>- Penilaian diberikan dengan menulis jumlah kesalahan yang dilakukan peserta</t>
+  </si>
+  <si>
+    <t>- Kolom keterangan diisi dengan uraian deskripsi untuk menjelaskan kesalahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   kesalahan yang perlu diperbaiki ke depannya</t>
+  </si>
+  <si>
+    <t>Samarinda, ………………………………</t>
+  </si>
+  <si>
+    <t>Penguji,</t>
+  </si>
+  <si>
+    <t>………………………………………………</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,151 +341,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,194 +362,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -633,366 +373,141 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top style="double">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1116,7 +631,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1140,9 +655,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1166,7 +681,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1219,7 +734,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1244,460 +759,457 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5714285714286" customWidth="true"/>
-    <col min="2" max="2" width="14" customWidth="true"/>
-    <col min="3" max="3" width="13.8571428571429" customWidth="true"/>
-    <col min="4" max="4" width="14.1428571428571" customWidth="true"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" ht="30" spans="1:4">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="30">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="30" spans="1:4">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:4" ht="30">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="1:4">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:4" ht="30">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" ht="30" spans="1:4">
-      <c r="A11" s="4" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="30">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" ht="30" spans="1:4">
-      <c r="A12" s="4" t="s">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="30">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" ht="30" spans="1:4">
-      <c r="A13" s="4" t="s">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="30">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" ht="30" spans="1:4">
-      <c r="A14" s="4" t="s">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="30">
+      <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="30" spans="1:4">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:4" ht="30">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" ht="30" spans="1:4">
-      <c r="A17" s="4" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="30">
+      <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" ht="30" spans="1:4">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:4" ht="30">
+      <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" ht="30" spans="1:4">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:4" ht="30">
+      <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="4" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.28571428571429" customWidth="true"/>
-    <col min="2" max="2" width="11.7142857142857" customWidth="true"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1707,6 +1219,163 @@
     <mergeCell ref="D1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A359E3EE-4D43-4567-8270-672340BA8646}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="158.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="158.25" customHeight="1" thickTop="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="G14" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>